--- a/Database-Toolbox-Texts.xlsx
+++ b/Database-Toolbox-Texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanis Prifti\Documents\GitHub\Database-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{588F8F9B-A7FB-4D4D-8A4A-F679F2A0264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99589ED6-26A0-4E89-9AB4-5AF140E4B96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{D7051843-C249-451C-B6E0-E7794DED0BD3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="224">
   <si>
     <t>Πρώτο Παράθυρο(GR) - First Window(EN)</t>
   </si>
@@ -540,6 +540,174 @@
   </si>
   <si>
     <t>Μη αποθηκευμένες αλλαγές!</t>
+  </si>
+  <si>
+    <t>Εικόνα 16(GR) - Picture 16(EN)</t>
+  </si>
+  <si>
+    <t>Εικόνα 16(GR)</t>
+  </si>
+  <si>
+    <t>Picture 16(EN)</t>
+  </si>
+  <si>
+    <t>Τρέχον Αριθμός Αποστολής = 9999999</t>
+  </si>
+  <si>
+    <t>Εισάγετε τον επιθυμητό αριθμό αποστολής:</t>
+  </si>
+  <si>
+    <t>Επιλογή</t>
+  </si>
+  <si>
+    <t>Ακύρωση</t>
+  </si>
+  <si>
+    <t>Enter the desired shipping number:</t>
+  </si>
+  <si>
+    <t>Current Shipment Number = 9999999</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Εικόνα 17(GR)</t>
+  </si>
+  <si>
+    <t>Picture 17(EN)</t>
+  </si>
+  <si>
+    <t>Εικόνα 17(GR) - Picture 17(EN)</t>
+  </si>
+  <si>
+    <t>Ολική Διαγραφή!</t>
+  </si>
+  <si>
+    <t>Είστε σίγουρος ότι επιθυμείτε να διαγράψετε όλα τα δεδομένα που βρίσκονται στην βάση;  Πιέστε 'ΟΚ' για να συνέχεια.  Πιέστε 'Cancel' για ακύρωση.</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete all the data in the database?  Press 'OK' to continue.  Press 'Cancel' to cancel.</t>
+  </si>
+  <si>
+    <t>Total Deletion!</t>
+  </si>
+  <si>
+    <t>Εικόνα 18(GR) - Picture 18(EN)</t>
+  </si>
+  <si>
+    <t>Εικόνα 19(GR) - Picture 19(EN)</t>
+  </si>
+  <si>
+    <t>Εικόνα 18(GR)</t>
+  </si>
+  <si>
+    <t>Picture 18(EN)</t>
+  </si>
+  <si>
+    <t>Εικόνα 19(GR)</t>
+  </si>
+  <si>
+    <t>Picture 19(EN)</t>
+  </si>
+  <si>
+    <t>Αλλαγή Ημερμηνίας -&gt; 123456789</t>
+  </si>
+  <si>
+    <t>Change Date -&gt; 123456789</t>
+  </si>
+  <si>
+    <t>ΩΡΑ</t>
+  </si>
+  <si>
+    <t>ΛΕΠΤΑ</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
+    <t>MINUTES</t>
+  </si>
+  <si>
+    <t>Εικόνα 20(GR) - Picture 20(EN)</t>
+  </si>
+  <si>
+    <t>Εικόνα 20(GR)</t>
+  </si>
+  <si>
+    <t>Picture 20(EN)</t>
+  </si>
+  <si>
+    <t>Κενή ημερομηνία!</t>
+  </si>
+  <si>
+    <t>Δεν μπορείτε να καταχωρίσετε κενή ημερομηνία! Για να συνεχίσετε πρέπει να επιλέξετε κάποια απο τις διαθέσιμες ημερομηνίες και να πατήσετε το πλήκτρο 'Επιλογή' αλλιώς πιέστε το πλήκτρο 'Ακύρωση'.</t>
+  </si>
+  <si>
+    <t>You cannot enter a blank date! To continue you must select one of the available dates and press the 'Select' button or press the 'Cancel' button.</t>
+  </si>
+  <si>
+    <t>Empty date!</t>
+  </si>
+  <si>
+    <t>Εικόνα 21(GR) - Picture 21(EN)</t>
+  </si>
+  <si>
+    <t>Εικόνα 21(GR)</t>
+  </si>
+  <si>
+    <t>Picture 21(EN)</t>
+  </si>
+  <si>
+    <t>Κενή ώρα ή λεπτά!</t>
+  </si>
+  <si>
+    <t>Έχετε επιλέξει μόνο ώρα ή λεπτά! Παρακαλώ συμπληρώστε και τα δύο αλλιώς αφήστε τα κενά ώστε να διατηρηθεί η τρέχουσα ώρα.</t>
+  </si>
+  <si>
+    <t>You have selected only time or minutes! Please fill in both or leave blank to keep the current time.</t>
+  </si>
+  <si>
+    <t>Empty hours or minutes!</t>
+  </si>
+  <si>
+    <t>Εικόνα 22(GR) - Picture 22(EN)</t>
+  </si>
+  <si>
+    <t>Εικόνα 22(GR)</t>
+  </si>
+  <si>
+    <t>Picture 22(EN)</t>
+  </si>
+  <si>
+    <t>ΥΓΡΑΣΙΕΣ</t>
+  </si>
+  <si>
+    <t>HUMIDITIES</t>
+  </si>
+  <si>
+    <t>Δεν μπορεί να τροποποιηθεί η υγρασία σε καμία παραγγελία διότι δεν υπάρχουν αισθητήρες διότι δεν υπάρχουν αισθητήρες ούτε μπορεί να ρυθμιστεί χειροκίνητα</t>
+  </si>
+  <si>
+    <t>The humidity cannot be modified in any order because there are no sensors because there are no sensors and it cannot be adjusted manually</t>
+  </si>
+  <si>
+    <t>Εικόνα 23(GR) - Picture 23(EN)</t>
+  </si>
+  <si>
+    <t>Εικόνα 23(GR)</t>
+  </si>
+  <si>
+    <t>Picture 23(EN)</t>
+  </si>
+  <si>
+    <t>Επιλέξτε το αρχείο που περιέχει την βάση δεδομένων</t>
+  </si>
+  <si>
+    <t>Select the file containing the database</t>
   </si>
 </sst>
 </file>
@@ -639,29 +807,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,8 +840,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1265,8 +1440,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3934304</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>114602</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>200327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1315,7 +1490,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4382094</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>95529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1365,8 +1540,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3924779</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>57384</xdr:rowOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>247884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1415,8 +1590,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3924779</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>9872</xdr:rowOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>95597</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1458,15 +1633,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3943829</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>38357</xdr:rowOff>
+      <xdr:colOff>3962879</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>124082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1495,7 +1670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="36366450"/>
+          <a:off x="533400" y="36976050"/>
           <a:ext cx="3429479" cy="1838582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1508,15 +1683,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3981929</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>181277</xdr:rowOff>
+      <xdr:colOff>3953354</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>66977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1545,7 +1720,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="38785800"/>
+          <a:off x="523875" y="39195375"/>
           <a:ext cx="3429479" cy="2162477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1555,11 +1730,407 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3600828</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>124305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7E6FE6-D3A4-FFF0-8A96-30DF52D76345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="41805225"/>
+          <a:ext cx="2705478" cy="3439005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3943829</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>181277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB0EB24-A3CF-D391-C36B-B64CD0C92F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="45634275"/>
+          <a:ext cx="3429479" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3581778</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>29096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF3ED2E6-019D-C057-548D-1C068BB5A100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="52330350"/>
+          <a:ext cx="2705478" cy="3734321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3600829</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>10045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEAD593B-798D-328B-662F-3BDDB34277DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="48110775"/>
+          <a:ext cx="2715004" cy="3724795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3934304</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>86027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46330529-6B42-05CE-E264-F7E0F2C47A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="56540400"/>
+          <a:ext cx="3429479" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3934304</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>124104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D293EAC-79EE-6536-AF91-690E19B43661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="59131200"/>
+          <a:ext cx="3429479" cy="2000529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3429312</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>181234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACEFF2F-0BE1-8E66-3B66-6FFDB7EF9002}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="61531500"/>
+          <a:ext cx="2238687" cy="1857634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3677054</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>9630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BACE3E6-F5EF-BAC8-A859-F2370CDD97B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="63712725"/>
+          <a:ext cx="2896004" cy="752580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1859,10 +2430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48867653-9E34-45DA-9DFA-6E21F04C7B14}">
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,1515 +2447,2154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="D6" s="5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="D7" s="2" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="D8" s="2" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="D10" s="2" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="D11" s="2" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="D12" s="2" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="D14" s="2" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="D14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="D16" s="5" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="D16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="D17" s="2" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="D17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="D19" s="5" t="s">
+      <c r="B18" s="4"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="D19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="D20" s="2" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="D20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="D21" s="2" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="D22" s="2" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="D22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="D23" s="2" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="D23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="D24" s="2" t="s">
+      <c r="A24" s="4"/>
+      <c r="D24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="D25" s="2" t="s">
+      <c r="A25" s="4"/>
+      <c r="D25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="D26" s="2" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10"/>
-      <c r="D27" s="2" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="D27" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="D28" s="2" t="s">
+      <c r="A28" s="4"/>
+      <c r="D28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="D29" s="2" t="s">
+      <c r="A29" s="4"/>
+      <c r="D29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="D30" s="2" t="s">
+      <c r="A30" s="4"/>
+      <c r="D30" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="D33" s="5" t="s">
+      <c r="A32" s="4"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="D33" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="D34" s="2" t="s">
+      <c r="A34" s="4"/>
+      <c r="D34" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="D35" s="2" t="s">
+      <c r="A35" s="4"/>
+      <c r="D35" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="D36" s="11" t="s">
+      <c r="A36" s="4"/>
+      <c r="D36" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="D38" s="5" t="s">
+      <c r="A37" s="4"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="D38" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="D39" s="2" t="s">
+      <c r="A39" s="4"/>
+      <c r="D39" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="D40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="D41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="D43" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="D44" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="D45" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="D46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="D48" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="D49" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="D40" s="12" t="s">
+      <c r="F49" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="D50" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E50" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="D41" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="D43" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="F50" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="D51" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="D44" s="2" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="D54" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="D55" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="D56" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="D58" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="D59" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="D60" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="D61" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="D63" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="D64" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="D65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="D66" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="D68" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="D69" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="D70" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="D71" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="D73" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="D74" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="D75" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="D76" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="D78" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="D79" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="D80" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="D81" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="D83" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="D84" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="D85" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="D86" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="D88" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+      <c r="D89" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="D90" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+    </row>
+    <row r="93" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="D93" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="D94" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E94" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="D45" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="D46" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="F94" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="D95" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="D96" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+    </row>
+    <row r="98" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="D98" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="D49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="D50" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="D51" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="D53" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="6" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="D99" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="D100" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+      <c r="D101" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+    </row>
+    <row r="103" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="D103" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F103" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="D54" s="2" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="D104" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="D105" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+    </row>
+    <row r="108" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="D108" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="D109" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="D110" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="D111" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="D112" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F112" s="14"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="D113" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F113" s="14"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+    </row>
+    <row r="115" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="D115" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="D116" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E116" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="D55" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="D56" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A58" s="8"/>
-      <c r="D58" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" s="6" t="s">
+      <c r="F116" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="D118" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+    </row>
+    <row r="120" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="D120" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F120" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="D59" s="2" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="D121" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="D122" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="D123" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+      <c r="D124" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="D125" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="D126" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+    </row>
+    <row r="128" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F128" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="D129" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="D130" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="D131" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
+      <c r="D132" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="D133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="D134" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+    </row>
+    <row r="136" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="D136" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
+      <c r="D137" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E137" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="D60" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="D61" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
-      <c r="D63" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="6" t="s">
+      <c r="F137" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="D139" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+    </row>
+    <row r="141" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="D141" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F141" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="D64" s="2" t="s">
+    <row r="142" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A142" s="13"/>
+      <c r="D142" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E142" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="D65" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="D66" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
-      <c r="D68" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F68" s="6" t="s">
+      <c r="F142" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="D143" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="D144" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+    </row>
+    <row r="146" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="D146" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F146" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="D69" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="D70" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="D71" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A73" s="8"/>
-      <c r="D73" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F73" s="6" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="D147" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="D148" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E148" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+    </row>
+    <row r="150" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+      <c r="D150" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F150" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="D74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="D75" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="D76" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A78" s="8"/>
-      <c r="D78" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="D79" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="D80" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="D81" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A83" s="8"/>
-      <c r="D83" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="D84" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="D85" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="D86" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A88" s="18"/>
-      <c r="D88" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
-      <c r="D89" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="D90" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A93" s="8"/>
-      <c r="D93" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="D94" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="D95" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="D96" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A98" s="8"/>
-      <c r="D98" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="D99" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="D100" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="D101" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A103" s="8"/>
-      <c r="D103" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="D104" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="D105" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-    </row>
-    <row r="111" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="18"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-    </row>
-    <row r="117" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-    </row>
-    <row r="120" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="18"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-    </row>
-    <row r="124" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A124" s="18"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-    </row>
-    <row r="128" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
-    </row>
-    <row r="132" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="18"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
-    </row>
-    <row r="137" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A137" s="18"/>
-    </row>
-    <row r="138" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
-    </row>
-    <row r="142" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="18"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
-    </row>
-    <row r="150" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A150" s="18"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
-    </row>
-    <row r="152" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A152" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-    </row>
-    <row r="157" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A157" s="18"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="D151" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
+      <c r="A161" s="4"/>
     </row>
     <row r="162" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="18"/>
-    </row>
-    <row r="163" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A163" s="18" t="s">
-        <v>159</v>
-      </c>
+      <c r="A162" s="13"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
+      <c r="A164" s="4"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
+      <c r="A165" s="4"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
+      <c r="A166" s="4"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
+      <c r="A167" s="4"/>
     </row>
     <row r="168" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A168" s="18"/>
+      <c r="A168" s="13"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="8"/>
+      <c r="A169" s="4"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="8"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="8"/>
+      <c r="A172" s="4"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="8"/>
+      <c r="A173" s="4"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="8"/>
+      <c r="A174" s="4"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="8"/>
+      <c r="A175" s="4"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="8"/>
-    </row>
-    <row r="177" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A177" s="18"/>
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="8"/>
+      <c r="A178" s="4"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="8"/>
+      <c r="A179" s="4"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="8"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="8"/>
+      <c r="A180" s="4"/>
+    </row>
+    <row r="181" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A181" s="13"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
+      <c r="A182" s="4"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="8"/>
+      <c r="A183" s="4"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="8"/>
+      <c r="A184" s="4"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="8"/>
+      <c r="A185" s="4"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="8"/>
+      <c r="A186" s="4"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="8"/>
+      <c r="A187" s="4"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="8"/>
+      <c r="A188" s="4"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="8"/>
+      <c r="A189" s="4"/>
     </row>
     <row r="190" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A190" s="18"/>
+      <c r="A190" s="13" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="8"/>
+      <c r="A191" s="4"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="8"/>
+      <c r="A192" s="4"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="8"/>
+      <c r="A193" s="4"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="8"/>
+      <c r="A194" s="4"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="8"/>
+      <c r="A195" s="4"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="8"/>
+      <c r="A196" s="4"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="8"/>
+      <c r="A197" s="4"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="8"/>
+      <c r="A198" s="4"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="8"/>
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A200" s="13"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="8"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="8"/>
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A202" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="13"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A223" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A226" s="13"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+    </row>
+    <row r="244" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A244" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+    </row>
+    <row r="257" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A257" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4"/>
+    </row>
+    <row r="269" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A269" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="4"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="4"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="4"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+    </row>
+    <row r="280" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A280" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="4"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="4"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="4"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="4"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="4"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
